--- a/assets/testPlan/TestPlan.xlsx
+++ b/assets/testPlan/TestPlan.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="TestDbSource" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -58,6 +59,63 @@
     <t>Datapipeline123</t>
   </si>
   <si>
+    <t>db_mysql</t>
+  </si>
+  <si>
+    <t>mysql</t>
+  </si>
+  <si>
+    <t>47.95.195.197</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>db_oracle</t>
+  </si>
+  <si>
+    <t>oracle</t>
+  </si>
+  <si>
+    <t>39.106.24.26</t>
+  </si>
+  <si>
+    <t>orcl</t>
+  </si>
+  <si>
+    <t>db_redshift</t>
+  </si>
+  <si>
+    <t>redshift</t>
+  </si>
+  <si>
+    <t>db_sequoiadb</t>
+  </si>
+  <si>
+    <t>sequoiadb</t>
+  </si>
+  <si>
+    <t>db_sqlserver</t>
+  </si>
+  <si>
+    <t>sqlserver</t>
+  </si>
+  <si>
+    <t>db_tidb</t>
+  </si>
+  <si>
+    <t>tidb</t>
+  </si>
+  <si>
+    <t>db_postgresql</t>
+  </si>
+  <si>
+    <t>postgresql</t>
+  </si>
+  <si>
+    <t>47.94.107.125</t>
+  </si>
+  <si>
     <t>db_greenplum</t>
   </si>
   <si>
@@ -65,63 +123,6 @@
   </si>
   <si>
     <t>47.93.239.84</t>
-  </si>
-  <si>
-    <t>db_mysql</t>
-  </si>
-  <si>
-    <t>mysql</t>
-  </si>
-  <si>
-    <t>47.95.195.197</t>
-  </si>
-  <si>
-    <t>root</t>
-  </si>
-  <si>
-    <t>db_oracle</t>
-  </si>
-  <si>
-    <t>oracle</t>
-  </si>
-  <si>
-    <t>39.106.24.26</t>
-  </si>
-  <si>
-    <t>orcl</t>
-  </si>
-  <si>
-    <t>db_postgresql</t>
-  </si>
-  <si>
-    <t>postgresql</t>
-  </si>
-  <si>
-    <t>47.94.107.125</t>
-  </si>
-  <si>
-    <t>db_redshift</t>
-  </si>
-  <si>
-    <t>redshift</t>
-  </si>
-  <si>
-    <t>db_sequoiadb</t>
-  </si>
-  <si>
-    <t>sequoiadb</t>
-  </si>
-  <si>
-    <t>db_sqlserver</t>
-  </si>
-  <si>
-    <t>sqlserver</t>
-  </si>
-  <si>
-    <t>db_tidb</t>
-  </si>
-  <si>
-    <t>tidb</t>
   </si>
   <si>
     <t>39.106.214.41</t>
@@ -1083,10 +1084,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelCol="6"/>
@@ -1163,13 +1164,13 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>123456</v>
       </c>
       <c r="F4">
-        <v>5432</v>
+        <v>3306</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -1177,117 +1178,147 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>123456</v>
       </c>
       <c r="F5">
-        <v>3306</v>
+        <v>1521</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>123456</v>
-      </c>
-      <c r="F6">
-        <v>1521</v>
-      </c>
-      <c r="G6" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>123456</v>
-      </c>
-      <c r="F7">
-        <v>5432</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelRow="2" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="14.9333333333333" customWidth="1"/>
+    <col min="2" max="2" width="11.6" customWidth="1"/>
+    <col min="3" max="3" width="14.9333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B1" t="s">
         <v>31</v>
       </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1">
+        <v>123456</v>
+      </c>
+      <c r="F1">
+        <v>5432</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>33</v>
       </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>123456</v>
+      </c>
+      <c r="F2">
+        <v>5432</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>36</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E11">
+      <c r="E3">
         <v>123456</v>
       </c>
-      <c r="F11">
+      <c r="F3">
         <v>4000</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/assets/testPlan/TestPlan.xlsx
+++ b/assets/testPlan/TestPlan.xlsx
@@ -107,6 +107,15 @@
     <t>tidb</t>
   </si>
   <si>
+    <t>db_greenplum</t>
+  </si>
+  <si>
+    <t>greenplum</t>
+  </si>
+  <si>
+    <t>47.93.239.84</t>
+  </si>
+  <si>
     <t>db_postgresql</t>
   </si>
   <si>
@@ -114,15 +123,6 @@
   </si>
   <si>
     <t>47.94.107.125</t>
-  </si>
-  <si>
-    <t>db_greenplum</t>
-  </si>
-  <si>
-    <t>greenplum</t>
-  </si>
-  <si>
-    <t>47.93.239.84</t>
   </si>
   <si>
     <t>39.106.214.41</t>
@@ -134,9 +134,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -163,23 +163,78 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,25 +246,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,75 +286,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -320,19 +320,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,91 +464,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,61 +488,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,41 +517,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,6 +556,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -593,6 +578,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,145 +610,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1084,10 +1084,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A11" sqref="A11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelCol="6"/>
@@ -1231,6 +1231,52 @@
         <v>29</v>
       </c>
     </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>123456</v>
+      </c>
+      <c r="F10">
+        <v>5432</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>123456</v>
+      </c>
+      <c r="F11">
+        <v>5432</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1243,7 +1289,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1255,13 +1301,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
@@ -1278,13 +1324,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
